--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>578891.5370312573</v>
+        <v>576410.6172057982</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1376,19 +1376,19 @@
         <v>327.7628950335564</v>
       </c>
       <c r="E11" t="n">
-        <v>228.7759790384008</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9558991545849</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>384.0015790663269</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001939</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579944</v>
+        <v>14.65678318579949</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104931</v>
+        <v>82.26761520104935</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717754</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
         <v>300.8321118830084</v>
@@ -1433,10 +1433,10 @@
         <v>322.3208221302865</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8109540913425</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.600494864208049</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,22 +1528,22 @@
         <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115013</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310858</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358047</v>
+        <v>90.12097307877004</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719017</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271942</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292085</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443154</v>
@@ -1588,10 +1588,10 @@
         <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>32.43394137236388</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019106</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
         <v>191.6645067649683</v>
@@ -1607,19 +1607,19 @@
         <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>338.352745183881</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>86.6605167616453</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663269</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.6876178001939</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104931</v>
+        <v>82.26761520104935</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524936</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717754</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
         <v>300.8321118830084</v>
@@ -1670,7 +1670,7 @@
         <v>322.3208221302865</v>
       </c>
       <c r="X14" t="n">
-        <v>59.82571730578573</v>
+        <v>342.8109540913425</v>
       </c>
       <c r="Y14" t="n">
         <v>359.3177920689271</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>113.4479485897127</v>
+        <v>107.0733734269373</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310858</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358047</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271942</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271158</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292081</v>
+        <v>62.01200608292085</v>
       </c>
       <c r="S16" t="n">
         <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
         <v>259.2916916184864</v>
@@ -1828,7 +1828,7 @@
         <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019106</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
         <v>191.6645067649683</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577616</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>280.787758414964</v>
       </c>
       <c r="E17" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>316.0088812200095</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477344</v>
+        <v>312.8128825920922</v>
       </c>
       <c r="H17" t="n">
         <v>220.7124811816015</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>35.29247858245689</v>
       </c>
       <c r="T17" t="n">
         <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>177.0998887531831</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644159</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W17" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X17" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y17" t="n">
         <v>312.3426554503346</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762184</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290881</v>
+        <v>93.35153789290889</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249333</v>
+        <v>74.72018981249342</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085015</v>
+        <v>72.53867944085023</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721222</v>
+        <v>71.52576481721231</v>
       </c>
       <c r="G19" t="n">
-        <v>92.1305250533092</v>
+        <v>92.13052505330928</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860176</v>
+        <v>70.85973170860184</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411909</v>
+        <v>22.45713720411916</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432832</v>
+        <v>15.03686946432839</v>
       </c>
       <c r="S19" t="n">
-        <v>178.2734363206857</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T19" t="n">
         <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V19" t="n">
         <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>212.627715130872</v>
+        <v>275.0274093258338</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6893701463758</v>
@@ -2081,22 +2081,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149639</v>
+        <v>280.787758414964</v>
       </c>
       <c r="E20" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G20" t="n">
-        <v>279.3200096460255</v>
+        <v>3.97432413433017</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245682</v>
+        <v>35.29247858245692</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>177.0998887531831</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644159</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X20" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3426554503346</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762184</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290881</v>
+        <v>93.35153789290889</v>
       </c>
       <c r="D22" t="n">
-        <v>137.119884007456</v>
+        <v>74.72018981249342</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085015</v>
+        <v>72.53867944085023</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721222</v>
+        <v>71.52576481721231</v>
       </c>
       <c r="G22" t="n">
-        <v>92.1305250533092</v>
+        <v>92.13052505330928</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860176</v>
+        <v>70.85973170860184</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411909</v>
+        <v>22.45713720411917</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432832</v>
+        <v>15.0368694643284</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
@@ -2293,16 +2293,16 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V22" t="n">
-        <v>178.242360118109</v>
+        <v>240.6420543130705</v>
       </c>
       <c r="W22" t="n">
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
         <v>291.3776085652885</v>
@@ -2324,7 +2324,7 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
         <v>332.9807625359924</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245674</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339011</v>
@@ -2375,10 +2375,10 @@
         <v>177.0998887531829</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X23" t="n">
         <v>295.83581747275</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290875</v>
+        <v>93.35153789290879</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249327</v>
+        <v>74.72018981249332</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085009</v>
+        <v>72.53867944085013</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721216</v>
+        <v>71.52576481721221</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330914</v>
+        <v>92.13052505330919</v>
       </c>
       <c r="H25" t="n">
-        <v>70.8597317086017</v>
+        <v>70.85973170860174</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411901</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432825</v>
+        <v>15.0368694643283</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257228</v>
+        <v>178.2734363206861</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>240.6420543130729</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247658</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,16 +2956,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
         <v>49.37728379124555</v>
@@ -2998,25 +2998,25 @@
         <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958336</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3095,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797668</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433876</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124561</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3323,16 +3323,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383235</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E37" t="n">
-        <v>92.28848050112485</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333694</v>
+        <v>134.2912433677312</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239898</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115153</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3664,10 +3664,10 @@
         <v>69.56210087052294</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>90.95618068285707</v>
       </c>
       <c r="F40" t="n">
         <v>47.73632779482635</v>
@@ -3676,10 +3676,10 @@
         <v>68.34108803092333</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I40" t="n">
-        <v>42.206938264393</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.084305103337</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.527117977508</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>154.4529230957231</v>
@@ -3724,10 +3724,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609323</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383242</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052295</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D43" t="n">
-        <v>93.13769105450045</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>42.20693826439391</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333702</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>188.527117977508</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503628</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383242</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010748</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846429</v>
+        <v>90.95618068285808</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482637</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092334</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>47.0702946862159</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333702</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>188.527117977508</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
-        <v>163.106871388383</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2027.313630030914</v>
+        <v>1500.637597194506</v>
       </c>
       <c r="C11" t="n">
-        <v>1685.543180350226</v>
+        <v>1158.867147513818</v>
       </c>
       <c r="D11" t="n">
-        <v>1354.4695490032</v>
+        <v>827.7935161667911</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489664</v>
+        <v>469.1973308282706</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597797</v>
+        <v>469.1973308282706</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810644999</v>
+        <v>81.31694793299084</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299093</v>
+        <v>81.31694793299084</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.507220395989</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3242.507220395989</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>3016.16881092955</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V11" t="n">
-        <v>2712.297990845703</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W11" t="n">
-        <v>2386.721402835312</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X11" t="n">
-        <v>2386.721402835312</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y11" t="n">
-        <v>2386.721402835312</v>
+        <v>1860.045369998904</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5142,28 +5142,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>710.4145733791408</v>
+        <v>418.3126375609369</v>
       </c>
       <c r="C13" t="n">
-        <v>568.6704577109577</v>
+        <v>276.5685218927534</v>
       </c>
       <c r="D13" t="n">
-        <v>445.7458855583458</v>
+        <v>276.5685218927534</v>
       </c>
       <c r="E13" t="n">
-        <v>445.7458855583458</v>
+        <v>276.5685218927534</v>
       </c>
       <c r="F13" t="n">
-        <v>326.0480053201591</v>
+        <v>185.5372359546019</v>
       </c>
       <c r="G13" t="n">
-        <v>185.5372359546018</v>
+        <v>185.5372359546019</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218342</v>
@@ -5221,28 +5221,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.502109058534</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.008292145084</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.433743974334</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U13" t="n">
-        <v>1519.522944359702</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.030523413539</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W13" t="n">
-        <v>1259.268966471757</v>
+        <v>967.1670306535528</v>
       </c>
       <c r="X13" t="n">
-        <v>1058.471482833463</v>
+        <v>766.3695470152593</v>
       </c>
       <c r="Y13" t="n">
-        <v>864.8709709496568</v>
+        <v>572.7690351314529</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1425.15066747818</v>
+        <v>1139.306993957417</v>
       </c>
       <c r="C14" t="n">
-        <v>1083.380217797493</v>
+        <v>1139.306993957417</v>
       </c>
       <c r="D14" t="n">
-        <v>1083.380217797493</v>
+        <v>808.2333626103899</v>
       </c>
       <c r="E14" t="n">
-        <v>724.7840324589722</v>
+        <v>720.6974870935765</v>
       </c>
       <c r="F14" t="n">
-        <v>724.7840324589722</v>
+        <v>336.9036495636925</v>
       </c>
       <c r="G14" t="n">
         <v>336.9036495636925</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912096</v>
@@ -5285,43 +5285,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395989</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039935</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.383130573495</v>
+        <v>2837.383130573497</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.512310489648</v>
+        <v>2533.51231048965</v>
       </c>
       <c r="W14" t="n">
-        <v>2207.935722479258</v>
+        <v>2207.935722479259</v>
       </c>
       <c r="X14" t="n">
-        <v>2147.505704998666</v>
+        <v>1861.662031477903</v>
       </c>
       <c r="Y14" t="n">
-        <v>1784.558440282578</v>
+        <v>1498.714766761815</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,10 +5373,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>612.8871857316875</v>
+        <v>418.3126375609368</v>
       </c>
       <c r="C16" t="n">
-        <v>498.2932982673312</v>
+        <v>310.1577149074648</v>
       </c>
       <c r="D16" t="n">
-        <v>375.3687261147193</v>
+        <v>187.2331427548528</v>
       </c>
       <c r="E16" t="n">
-        <v>375.3687261147193</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>255.6708458765328</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6708458765328</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541143</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003739</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705055</v>
+        <v>368.9238220705058</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402572</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5455,7 +5455,7 @@
         <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058535</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
         <v>2077.863719075786</v>
@@ -5464,22 +5464,22 @@
         <v>1913.369902162336</v>
       </c>
       <c r="T16" t="n">
-        <v>1913.369902162336</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U16" t="n">
-        <v>1651.459102547703</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V16" t="n">
-        <v>1423.96668160154</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W16" t="n">
-        <v>1161.741578824303</v>
+        <v>967.1670306535527</v>
       </c>
       <c r="X16" t="n">
-        <v>960.9440951860098</v>
+        <v>766.3695470152592</v>
       </c>
       <c r="Y16" t="n">
-        <v>767.3435833022035</v>
+        <v>572.7690351314528</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1554.55302580711</v>
+        <v>1830.862197398326</v>
       </c>
       <c r="C17" t="n">
-        <v>1260.232209074495</v>
+        <v>1536.541380665712</v>
       </c>
       <c r="D17" t="n">
-        <v>1260.232209074495</v>
+        <v>1252.917382266758</v>
       </c>
       <c r="E17" t="n">
-        <v>949.0856566840475</v>
+        <v>941.7708298763109</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628258</v>
+        <v>605.4266252945004</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156193</v>
@@ -5513,19 +5513,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T17" t="n">
-        <v>3194.26977420119</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>3015.380997682823</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V17" t="n">
-        <v>2758.959810547049</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W17" t="n">
-        <v>2480.832855484732</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X17" t="n">
-        <v>2182.008797431449</v>
+        <v>2146.359829166341</v>
       </c>
       <c r="Y17" t="n">
-        <v>1866.511165663435</v>
+        <v>1830.862197398326</v>
       </c>
     </row>
     <row r="18">
@@ -5568,70 +5568,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872285</v>
+        <v>569.121778987229</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671186</v>
+        <v>474.827296267119</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625799</v>
+        <v>399.3523570625802</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879837</v>
+        <v>326.080963687984</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978704</v>
+        <v>253.8327163978706</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803865</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604109</v>
+        <v>89.19609340604116</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5692,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053817</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S19" t="n">
-        <v>1732.031612952115</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.906697729438</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.445531062878</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.402743064788</v>
+        <v>1253.432737201114</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356247</v>
+        <v>975.6272732356255</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454043</v>
+        <v>822.2794225454051</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096712</v>
+        <v>676.1285436096719</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1797.03101260432</v>
+        <v>1518.904057542001</v>
       </c>
       <c r="C20" t="n">
-        <v>1502.710195871705</v>
+        <v>1224.583240809387</v>
       </c>
       <c r="D20" t="n">
-        <v>1219.086197472751</v>
+        <v>940.959242410433</v>
       </c>
       <c r="E20" t="n">
-        <v>907.9396450823042</v>
+        <v>629.8126900199859</v>
       </c>
       <c r="F20" t="n">
-        <v>571.5954405004936</v>
+        <v>293.468485438175</v>
       </c>
       <c r="G20" t="n">
         <v>289.4540166156193</v>
@@ -5750,25 +5750,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5777,7 +5777,7 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344063</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T20" t="n">
         <v>3158.620805936082</v>
@@ -5786,16 +5786,16 @@
         <v>2979.732029417715</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.310842281942</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W20" t="n">
-        <v>2723.310842281942</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X20" t="n">
-        <v>2424.486784228659</v>
+        <v>2146.359829166341</v>
       </c>
       <c r="Y20" t="n">
-        <v>2108.989152460645</v>
+        <v>1830.862197398326</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,31 +5847,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
         <v>1109.759191501176</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1517731235544</v>
+        <v>569.121778987229</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8572904034445</v>
+        <v>474.8272962671191</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625799</v>
+        <v>399.3523570625803</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879837</v>
+        <v>326.0809636879841</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978704</v>
+        <v>253.8327163978706</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803865</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604109</v>
+        <v>89.19609340604117</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
@@ -5938,22 +5938,22 @@
         <v>1795.06160708844</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.936691865764</v>
+        <v>1647.936691865763</v>
       </c>
       <c r="U22" t="n">
         <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201114</v>
+        <v>1190.402743064789</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356255</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817302</v>
+        <v>822.2794225454051</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459971</v>
+        <v>676.1285436096719</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056951</v>
+        <v>1862.18597705695</v>
       </c>
       <c r="C23" t="n">
         <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925383</v>
+        <v>1284.241161925382</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349357</v>
+        <v>973.094609534935</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531251</v>
+        <v>636.7504049531244</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
@@ -5990,28 +5990,28 @@
         <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>916.9802179168073</v>
+        <v>596.0762594713542</v>
       </c>
       <c r="L23" t="n">
-        <v>1368.014431165216</v>
+        <v>1383.526753844413</v>
       </c>
       <c r="M23" t="n">
-        <v>1901.546335837141</v>
+        <v>1917.058658516337</v>
       </c>
       <c r="N23" t="n">
-        <v>2448.325152895923</v>
+        <v>2463.837475575119</v>
       </c>
       <c r="O23" t="n">
-        <v>2951.29762377526</v>
+        <v>2966.809946454456</v>
       </c>
       <c r="P23" t="n">
-        <v>3346.071990132438</v>
+        <v>3361.584312811634</v>
       </c>
       <c r="Q23" t="n">
         <v>3609.870674567316</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124118</v>
+        <v>3668.887741124119</v>
       </c>
       <c r="S23" t="n">
         <v>3633.238772859011</v>
@@ -6020,7 +6020,7 @@
         <v>3501.90272545103</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932663</v>
+        <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
         <v>3066.59276179689</v>
@@ -6029,10 +6029,10 @@
         <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681291</v>
+        <v>2489.64174868129</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913276</v>
+        <v>2174.144116913275</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714077</v>
+        <v>948.4094928714064</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902807</v>
+        <v>773.9564635902794</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290294</v>
+        <v>625.0220539290282</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235739</v>
+        <v>465.7845989235727</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504588</v>
+        <v>319.2500409504577</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830769</v>
+        <v>182.8869407830758</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094441</v>
+        <v>92.38504642094328</v>
       </c>
       <c r="I24" t="n">
         <v>73.37775482248237</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130997</v>
+        <v>167.0550243130996</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934468</v>
+        <v>405.3192232934467</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061122</v>
+        <v>772.0173836061119</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
@@ -6084,34 +6084,34 @@
         <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.27762327704</v>
+        <v>2414.277623277039</v>
       </c>
       <c r="Q24" t="n">
-        <v>2571.91918092364</v>
+        <v>2571.919180923639</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516155</v>
+        <v>2571.774827516154</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009635</v>
+        <v>2442.336941009634</v>
       </c>
       <c r="T24" t="n">
-        <v>2249.693940687491</v>
+        <v>2249.69394068749</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821907</v>
+        <v>2021.626093821905</v>
       </c>
       <c r="V24" t="n">
-        <v>1786.473985590164</v>
+        <v>1786.473985590163</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861962</v>
+        <v>1532.236628861961</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.38512865643</v>
+        <v>1324.385128656428</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624829891476</v>
+        <v>1116.624829891475</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.987417377527</v>
+        <v>575.9874173775272</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574171</v>
+        <v>481.6929346574174</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528785</v>
+        <v>406.2179954528787</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782824</v>
+        <v>332.9466020782826</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881691</v>
+        <v>260.6983547881692</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706851</v>
+        <v>167.6372183706852</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179633997</v>
+        <v>96.06173179634003</v>
       </c>
       <c r="I25" t="n">
         <v>73.37775482248237</v>
@@ -6148,13 +6148,13 @@
         <v>118.5003872694179</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182943</v>
+        <v>322.4875702182942</v>
       </c>
       <c r="L25" t="n">
         <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663394</v>
+        <v>983.2044142663393</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
@@ -6166,31 +6166,31 @@
         <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.160186478792</v>
+        <v>1934.160186478791</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444117</v>
+        <v>1918.971429444116</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92724547874</v>
+        <v>1738.897251342413</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.802330256063</v>
+        <v>1591.772336119736</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589504</v>
+        <v>1377.311169453177</v>
       </c>
       <c r="V25" t="n">
         <v>1197.268381455087</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259231</v>
+        <v>982.4929116259233</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357028</v>
+        <v>829.145060935703</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999697</v>
+        <v>682.9941819999699</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6212,61 +6212,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467792</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486248</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.59600554503</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424367</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6279,73 +6279,73 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T27" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U27" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W27" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y27" t="n">
         <v>1124.393991965682</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899659</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913837</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415466</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643389</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
         <v>786.3326864982171</v>
@@ -6400,13 +6400,13 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
         <v>2127.355355052752</v>
@@ -6418,7 +6418,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="29">
@@ -6455,43 +6455,43 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>334.8879947388198</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>668.7073684286664</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L29" t="n">
-        <v>1119.741581677075</v>
+        <v>1706.925601880499</v>
       </c>
       <c r="M29" t="n">
-        <v>1653.273486349</v>
+        <v>2240.457506552423</v>
       </c>
       <c r="N29" t="n">
-        <v>2200.052303407782</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O29" t="n">
-        <v>3080.016953737237</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094415</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
         <v>779.7865456803188</v>
@@ -6558,31 +6558,31 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U30" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y30" t="n">
         <v>1124.393991965682</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698006</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257044</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913846</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960317</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973148</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982176</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6640,31 +6640,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.299882151967</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F32" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486248</v>
+        <v>1653.273486348999</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.59600554503</v>
+        <v>2200.052303407781</v>
       </c>
       <c r="O32" t="n">
-        <v>2971.628073400775</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.983160847721</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="33">
@@ -6753,73 +6753,73 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y33" t="n">
         <v>1124.393991965682</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257044</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415474</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960323</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973153</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498218</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519672</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E35" t="n">
         <v>894.139768046497</v>
@@ -6926,7 +6926,7 @@
         <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6935,16 +6935,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6968,19 +6968,19 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G36" t="n">
         <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064531</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7044,16 +7044,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
         <v>1317.51949026613</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>839.5784050866012</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C37" t="n">
-        <v>769.3136567325377</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D37" t="n">
-        <v>717.8684518940453</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E37" t="n">
-        <v>624.6477645191717</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218342</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489163</v>
+        <v>1791.646827515027</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332019</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V37" t="n">
-        <v>1364.740431699975</v>
+        <v>1026.09285700431</v>
       </c>
       <c r="W37" t="n">
-        <v>1173.994696236858</v>
+        <v>835.3471215411925</v>
       </c>
       <c r="X37" t="n">
-        <v>1044.676579912684</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.5554353429975</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="38">
@@ -7163,46 +7163,46 @@
         <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
         <v>3051.821232515855</v>
@@ -7248,22 +7248,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>740.9069705127572</v>
+        <v>444.8926667912269</v>
       </c>
       <c r="C40" t="n">
-        <v>670.6422221586936</v>
+        <v>374.6279184371633</v>
       </c>
       <c r="D40" t="n">
-        <v>520.5255827463578</v>
+        <v>323.1827135986709</v>
       </c>
       <c r="E40" t="n">
-        <v>372.6124891639647</v>
+        <v>231.307783615987</v>
       </c>
       <c r="F40" t="n">
-        <v>324.3939762398977</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
-        <v>255.36257418846</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>109.1453874063178</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1612.513483058689</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758175</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.068997126132</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.323261663014</v>
+        <v>976.6518270891708</v>
       </c>
       <c r="X40" t="n">
-        <v>946.0051453388403</v>
+        <v>748.6622761911534</v>
       </c>
       <c r="Y40" t="n">
-        <v>823.8840007691535</v>
+        <v>527.8696970476233</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,64 +7394,64 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F41" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
         <v>1999.070337960652</v>
@@ -7485,16 +7485,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>839.5784050866005</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C43" t="n">
-        <v>769.3136567325369</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D43" t="n">
-        <v>675.2351809199101</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E43" t="n">
-        <v>527.322087337517</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F43" t="n">
-        <v>380.4321398396067</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143257</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.661277114357</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1791.646827515027</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332019</v>
+        <v>1280.777345210196</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699975</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W43" t="n">
-        <v>1173.994696236858</v>
+        <v>934.0185561150358</v>
       </c>
       <c r="X43" t="n">
-        <v>1044.676579912684</v>
+        <v>804.700439790862</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.5554353429968</v>
+        <v>583.9078606473319</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
         <v>1440.850850103805</v>
@@ -7631,55 +7631,55 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
         <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
         <v>2819.429779746127</v>
@@ -7688,10 +7688,10 @@
         <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>500.9308303909362</v>
+        <v>642.2355359389142</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630293</v>
+        <v>473.2993530110073</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245369</v>
+        <v>421.854148172515</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159871</v>
+        <v>329.9792181898301</v>
       </c>
       <c r="F46" t="n">
-        <v>183.08927069192</v>
+        <v>281.7607052657632</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
         <v>1834.280098489162</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332019</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V46" t="n">
-        <v>1266.068997126132</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W46" t="n">
-        <v>976.6518270891711</v>
+        <v>976.6518270891709</v>
       </c>
       <c r="X46" t="n">
-        <v>748.6622761911538</v>
+        <v>847.333710764997</v>
       </c>
       <c r="Y46" t="n">
-        <v>583.9078606473325</v>
+        <v>725.2125661953104</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430632</v>
+        <v>157.2353108430621</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729009</v>
+        <v>184.4039433728993</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389606</v>
+        <v>191.4948909389586</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333069</v>
+        <v>181.0856325333047</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830243</v>
+        <v>179.355374883022</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383993</v>
+        <v>182.8301554383971</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586587</v>
+        <v>190.8908035586568</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266126</v>
+        <v>192.0103836266112</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875975</v>
+        <v>112.6562001875968</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372534</v>
+        <v>113.6031223372523</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672275</v>
+        <v>105.9629718672261</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253595</v>
+        <v>104.1013981253577</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677672</v>
+        <v>92.30246558677496</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359737</v>
+        <v>106.8829608359721</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798325</v>
+        <v>105.3113487798312</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615458</v>
+        <v>120.821278461545</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564659</v>
+        <v>116.175525256465</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085228</v>
+        <v>119.1996074085219</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140779</v>
+        <v>108.428412314077</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530925</v>
+        <v>120.6694600530917</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662705</v>
+        <v>122.5080856662698</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9638,10 +9638,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>339.8144253784342</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>15.66901280726788</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,19 +9881,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>209.1187564935617</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>277.2206841544135</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>8.633094239485217e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>65.51711806374254</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>334.4868774152288</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,19 +10355,19 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>65.51711806374306</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>167.7369666428365</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -11060,13 +11060,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719372</v>
+        <v>15.02219619719371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>126.2342444467344</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524936</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913425</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>357.717297204719</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594426</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>28.37992835703471</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271158</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292081</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>227.1689103771006</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.352745183881</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335564</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>268.34970672349</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9558991545849</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>384.0015790663269</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579944</v>
+        <v>14.65678318579947</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>282.9852367855568</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>26.87872592178856</v>
+        <v>33.25330108456407</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594426</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358047</v>
       </c>
       <c r="G16" t="n">
         <v>139.1056616719017</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271161</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890427</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23729,22 +23729,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149639</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>16.9718813159829</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>24.21355985564231</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245681</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>57.70643280170896</v>
+        <v>333.0521183134043</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>275.345685511694</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1077296.039274322</v>
+        <v>1077296.039274321</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>888256.8243512291</v>
+        <v>888256.824351229</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>966245.8087611028</v>
+        <v>966245.8087611026</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>998058.9471023988</v>
+        <v>998058.947102399</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26314,25 @@
         <v>450601.9862943711</v>
       </c>
       <c r="C2" t="n">
-        <v>450601.986294371</v>
+        <v>450601.9862943711</v>
       </c>
       <c r="D2" t="n">
-        <v>450614.2683932707</v>
+        <v>450614.2683932704</v>
       </c>
       <c r="E2" t="n">
-        <v>401247.000497736</v>
+        <v>401247.0004977357</v>
       </c>
       <c r="F2" t="n">
-        <v>401247.0004977361</v>
+        <v>401247.0004977359</v>
       </c>
       <c r="G2" t="n">
-        <v>436991.9516855948</v>
+        <v>436991.9516855947</v>
       </c>
       <c r="H2" t="n">
         <v>436991.9516855948</v>
       </c>
       <c r="I2" t="n">
-        <v>451572.9734253557</v>
+        <v>451572.9734253556</v>
       </c>
       <c r="J2" t="n">
         <v>451572.9734253561</v>
@@ -26350,10 +26350,10 @@
         <v>451572.9734253559</v>
       </c>
       <c r="O2" t="n">
-        <v>451572.9734253557</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="P2" t="n">
-        <v>451572.9734253557</v>
+        <v>451572.9734253558</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552255</v>
+        <v>59764.55367552528</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163632</v>
+        <v>1089238.972163629</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487399</v>
+        <v>37580.10929487378</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983383</v>
+        <v>22821.46782983372</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179701</v>
+        <v>25409.43302179704</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487395</v>
+        <v>37580.10929487397</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,31 +26421,31 @@
         <v>457775.3608255375</v>
       </c>
       <c r="D4" t="n">
-        <v>435086.1724434264</v>
+        <v>435086.1724434253</v>
       </c>
       <c r="E4" t="n">
-        <v>40634.10590866218</v>
+        <v>40634.10590866215</v>
       </c>
       <c r="F4" t="n">
-        <v>40634.10590866218</v>
+        <v>40634.10590866212</v>
       </c>
       <c r="G4" t="n">
-        <v>77662.26627010433</v>
+        <v>77662.26627010424</v>
       </c>
       <c r="H4" t="n">
-        <v>77662.2662701043</v>
+        <v>77662.26627010427</v>
       </c>
       <c r="I4" t="n">
-        <v>91903.68494905923</v>
+        <v>91903.68494905929</v>
       </c>
       <c r="J4" t="n">
-        <v>91012.35309462823</v>
+        <v>91012.35309462834</v>
       </c>
       <c r="K4" t="n">
-        <v>91012.35309462824</v>
+        <v>91012.35309462831</v>
       </c>
       <c r="L4" t="n">
-        <v>91012.3530946282</v>
+        <v>91012.35309462831</v>
       </c>
       <c r="M4" t="n">
         <v>92793.84288319403</v>
@@ -26454,10 +26454,10 @@
         <v>92793.84288319398</v>
       </c>
       <c r="O4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="P4" t="n">
-        <v>92793.84288319397</v>
+        <v>92793.84288319408</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186635</v>
+        <v>35148.90543186642</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482643</v>
+        <v>76569.49036482644</v>
       </c>
       <c r="G5" t="n">
         <v>80518.64312521488</v>
@@ -26488,22 +26488,22 @@
         <v>80518.64312521488</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.5283018421</v>
+        <v>85736.52830184209</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624985</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-40800.97453116639</v>
+        <v>-40805.38810903445</v>
       </c>
       <c r="C6" t="n">
-        <v>-40800.97453116645</v>
+        <v>-40805.38810903451</v>
       </c>
       <c r="D6" t="n">
-        <v>-79385.36315754458</v>
+        <v>-79389.72090769251</v>
       </c>
       <c r="E6" t="n">
-        <v>-805195.5679393846</v>
+        <v>-805424.3223617806</v>
       </c>
       <c r="F6" t="n">
-        <v>284043.4042242474</v>
+        <v>283814.649801849</v>
       </c>
       <c r="G6" t="n">
-        <v>241230.9329954016</v>
+        <v>241164.6556238574</v>
       </c>
       <c r="H6" t="n">
-        <v>278811.0422902757</v>
+        <v>278744.7649187313</v>
       </c>
       <c r="I6" t="n">
         <v>251111.2923446205</v>
       </c>
       <c r="J6" t="n">
-        <v>245773.2456341248</v>
+        <v>245773.2456341247</v>
       </c>
       <c r="K6" t="n">
-        <v>271182.6786559217</v>
+        <v>271182.6786559216</v>
       </c>
       <c r="L6" t="n">
-        <v>233602.5693610479</v>
+        <v>233602.5693610478</v>
       </c>
       <c r="M6" t="n">
         <v>74092.43324318754</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="N2" t="n">
         <v>97.68472022810489</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790615</v>
+        <v>69.78465283790933</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26762,7 +26762,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26799,7 +26799,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
@@ -26808,28 +26808,28 @@
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810296</v>
+        <v>917.2219352810297</v>
       </c>
       <c r="J4" t="n">
+        <v>1014.336461208615</v>
+      </c>
+      <c r="K4" t="n">
         <v>1014.336461208614</v>
       </c>
-      <c r="K4" t="n">
-        <v>1014.336461208615</v>
-      </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,19 +26914,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712654</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859244</v>
+        <v>46.97513661859246</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790615</v>
+        <v>69.78465283790933</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755392</v>
+        <v>1019.992047755389</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-8.202073660032603e-15</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873693</v>
+        <v>85.82047987873705</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758485</v>
+        <v>97.11452592758496</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959706</v>
+        <v>648.466449595971</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,19 +27151,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712654</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434005</v>
+        <v>336.6017083434003</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104727</v>
+        <v>199.6603204104723</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780175</v>
+        <v>132.2465643780167</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036572</v>
+        <v>202.627234303657</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448432</v>
+        <v>221.8677799448431</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27947,10 +27947,10 @@
         <v>137.193414325031</v>
       </c>
       <c r="H9" t="n">
-        <v>110.7857668256562</v>
+        <v>110.7857668256561</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672109</v>
+        <v>84.22861846672085</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987521</v>
+        <v>90.83829126987479</v>
       </c>
       <c r="S9" t="n">
-        <v>168.895076719229</v>
+        <v>168.8950767192289</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28029,13 +28029,13 @@
         <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241797</v>
+        <v>151.6660875241795</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519088</v>
+        <v>84.46220888519046</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990388</v>
+        <v>7.64903505098972</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317055</v>
+        <v>75.62456067317008</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437878</v>
+        <v>171.6351144437875</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207384</v>
+        <v>221.8235295207383</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712649</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="S19" t="n">
-        <v>11.49558901075622</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075721</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="D22" t="n">
-        <v>11.49558901075639</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075753</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571908</v>
+        <v>11.49558901075577</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V25" t="n">
-        <v>11.49558901075505</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="26">
@@ -29293,7 +29293,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859352</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E37" t="n">
-        <v>54.14548214544432</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371067</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>97.68472022810489</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30384,10 +30384,10 @@
         <v>97.68472022810489</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>55.4777819637121</v>
       </c>
       <c r="F40" t="n">
         <v>97.68472022810489</v>
@@ -30396,10 +30396,10 @@
         <v>97.68472022810489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I40" t="n">
-        <v>54.14548214544509</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,16 +30426,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>97.68472022810489</v>
       </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
       <c r="U40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>97.68472022810489</v>
@@ -30444,10 +30444,10 @@
         <v>97.68472022810489</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D43" t="n">
-        <v>55.47778196371191</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>46.72521440565344</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810488</v>
+        <v>55.4777819637111</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y46" t="n">
-        <v>55.47778196371181</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.280541317941331</v>
+        <v>0.2805413179413438</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366657</v>
+        <v>2.873093772366788</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993318</v>
+        <v>10.81556915993367</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362307</v>
+        <v>23.81059368362416</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207962</v>
+        <v>35.68590767208124</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102664</v>
+        <v>44.27152403102865</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396578</v>
+        <v>49.26060069396803</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356659</v>
+        <v>50.05768871356888</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328747</v>
+        <v>47.26805598328963</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661086</v>
+        <v>40.3421921966127</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783693</v>
+        <v>30.29530624783832</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313215</v>
+        <v>17.62255356313296</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588088</v>
+        <v>6.392835282588379</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288177</v>
+        <v>1.228069619288233</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530648</v>
+        <v>0.0224433054353075</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796472</v>
+        <v>0.1501028381796541</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840277</v>
+        <v>1.449677410840343</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693994</v>
+        <v>5.16801438469423</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906921</v>
+        <v>14.18142647906986</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710558</v>
+        <v>24.23831663710668</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264664</v>
+        <v>32.59140791264813</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665884</v>
+        <v>38.03263579666059</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655658</v>
+        <v>39.03924649655836</v>
       </c>
       <c r="O9" t="n">
-        <v>35.7132836084707</v>
+        <v>35.71328360847234</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449772</v>
+        <v>28.66305863449903</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447567</v>
+        <v>19.16049562447654</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767923</v>
+        <v>9.319542882768349</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608796</v>
+        <v>2.788094384608923</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890163</v>
+        <v>0.6050197731890439</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345214</v>
+        <v>0.009875186722345665</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486832</v>
+        <v>0.125841177248689</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811021</v>
+        <v>1.118842466811072</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078584</v>
+        <v>3.784387403078756</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481903</v>
+        <v>8.896971231482308</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489246</v>
+        <v>14.62045677489313</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477241</v>
+        <v>18.70915102477327</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908222</v>
+        <v>19.72617653908312</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115533</v>
+        <v>19.25713215115621</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875025</v>
+        <v>17.78707839875106</v>
       </c>
       <c r="P10" t="n">
-        <v>15.2199183828771</v>
+        <v>15.21991838287779</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852383</v>
+        <v>10.53748257852431</v>
       </c>
       <c r="R10" t="n">
-        <v>5.6582769333817</v>
+        <v>5.658276933381958</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233869</v>
+        <v>2.19306851623397</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625554</v>
+        <v>0.5376850300625799</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564547</v>
+        <v>0.00686406421356486</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019273</v>
+        <v>72.49856320019269</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314461</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
         <v>374.5535259806103</v>
@@ -35586,7 +35586,7 @@
         <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250202</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019273</v>
+        <v>72.49856320019272</v>
       </c>
       <c r="K16" t="n">
         <v>232.9678061314461</v>
@@ -35817,7 +35817,7 @@
         <v>371.7770927546666</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097663</v>
       </c>
       <c r="P16" t="n">
         <v>261.8772177322369</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>795.4045397707662</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>266.4633176109874</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>761.420591906473</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>675.9826703737854</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>256.3041190324552</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923323</v>
+        <v>790.0769918075607</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509647</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>604.4382338939696</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>675.7899675310556</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165975</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120763</v>
@@ -37245,7 +37245,7 @@
         <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554011</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
